--- a/ClosedXML.Tests/Resource/Other/Charts/PreserveCharts/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/Charts/PreserveCharts/outputfile.xlsx
@@ -1279,7 +1279,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1287,7 +1287,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1">
         <x:v>43115</x:v>
       </x:c>
@@ -1295,7 +1295,7 @@
         <x:f>RANDBETWEEN(1,10)</x:f>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A3" s="1">
         <x:v>43146</x:v>
       </x:c>
@@ -1303,7 +1303,7 @@
         <x:f>RANDBETWEEN(1,10)</x:f>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A4" s="1">
         <x:v>43174</x:v>
       </x:c>
@@ -1311,7 +1311,7 @@
         <x:f>RANDBETWEEN(1,10)</x:f>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A5" s="1">
         <x:v>43205</x:v>
       </x:c>
@@ -1319,7 +1319,7 @@
         <x:f>RANDBETWEEN(1,10)</x:f>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A6" s="1">
         <x:v>43235</x:v>
       </x:c>
@@ -1327,7 +1327,7 @@
         <x:f>RANDBETWEEN(1,10)</x:f>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A7" s="1">
         <x:v>43266</x:v>
       </x:c>
@@ -1335,7 +1335,7 @@
         <x:f>RANDBETWEEN(1,10)</x:f>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <x:c r="A8" s="1">
         <x:v>43296</x:v>
       </x:c>
